--- a/biology/Botanique/Paul_Pétard/Paul_Pétard.xlsx
+++ b/biology/Botanique/Paul_Pétard/Paul_Pétard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul_P%C3%A9tard</t>
+          <t>Paul_Pétard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Pélard, né le 7 mai 1912 à Genouilly et mort le 4 février 1980 à Boulogne-Billancourt[1], est un botaniste français, ethnobotaniste et pharmacologue des plantes médicinales et vénéneuses de Polynésie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Pélard, né le 7 mai 1912 à Genouilly et mort le 4 février 1980 à Boulogne-Billancourt, est un botaniste français, ethnobotaniste et pharmacologue des plantes médicinales et vénéneuses de Polynésie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paul_P%C3%A9tard</t>
+          <t>Paul_Pétard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Pétard a été officier-pharmacien des troupes coloniales à l'hôpital de Papeete en Polynésie française de 1937 à 1945, il se spécialise dans la flore de Polynésie. Il s'intéresse particulièrement aux savoirs locaux qu'il recueille durant de nombreuses années.
-Il soutient une thèse de pharmacie en 1960 sous le titre Quelques plantes utiles de la Polynésie Française Ptèridophytes et Monocotylédones à l'université de Marseille[2].
-Il décrit plus de 220 espèces et étudie leurs propriétés pharmaceutiques de la flore polynésienne[3]. 
+Il soutient une thèse de pharmacie en 1960 sous le titre Quelques plantes utiles de la Polynésie Française Ptèridophytes et Monocotylédones à l'université de Marseille.
+Il décrit plus de 220 espèces et étudie leurs propriétés pharmaceutiques de la flore polynésienne. 
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paul_P%C3%A9tard</t>
+          <t>Paul_Pétard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +558,15 @@
           <t>Publications principales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1951 Les plantes ichtyotoxiques polynésiennes, Revue de médecine tropicale, Marseille, N° 3, . 498–511
-1955 Les Plantes tinctoriales polynésiennes,Journal d'agriculture traditionnelle et de botanique appliquée, N°   2-3-4  pp. 193-199[4]
-1972 Raau Tahiti : plantes médicinales et remèdes tahitiens, Publication : Nouméa : Commission du Pacifique sud, 86 pages[5]
+1955 Les Plantes tinctoriales polynésiennes,Journal d'agriculture traditionnelle et de botanique appliquée, N°   2-3-4  pp. 193-199
+1972 Raau Tahiti : plantes médicinales et remèdes tahitiens, Publication : Nouméa : Commission du Pacifique sud, 86 pages
 1974 Raau Tahiti  : plantes médicinales polynésiennes et remèdes tahitiens, Saint Denis, La Réunion: Imp. Cazal, 63 pages
-1986 Quelques plantes utiles de Polynésie française et raau Tahiti.  ; ill. par Gilles Cordonnier, Éd. rev. et augm. par Denise et Robert Koenig  Publication  : Tahiti  : Éd. Haere Po No Tahiti, 354 pages, réédité en 2007[6]</t>
+1986 Quelques plantes utiles de Polynésie française et raau Tahiti.  ; ill. par Gilles Cordonnier, Éd. rev. et augm. par Denise et Robert Koenig  Publication  : Tahiti  : Éd. Haere Po No Tahiti, 354 pages, réédité en 2007</t>
         </is>
       </c>
     </row>
